--- a/Testcases_supplier/Customers/Manual testcases/Customer-Manage settings.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer-Manage settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Supplier hub\Customers\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86E1A55-E7C4-4D53-A604-5F36171741EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59679E63-6721-49B1-AB2B-51FA4755EF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>SL. No</t>
   </si>
@@ -289,15 +289,6 @@
     <t>It gets displayed Disable ordering function</t>
   </si>
   <si>
-    <t>Actions-&gt;Manage settings-&gt;New order notification</t>
-  </si>
-  <si>
-    <t>When new order arrives,notify: are By email, By SMS, By whatsapp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It gets displayed 1.By email : should give email address   2.By SMS : should give Phone number                                      3.By Whatsapp : should give Phone number    </t>
-  </si>
-  <si>
     <t>Actions-&gt;Manage settings-&gt;Delivery fee and minimum order</t>
   </si>
   <si>
@@ -373,6 +364,85 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <r>
+      <t>Actions-&gt;Manage settings-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New order notification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When new order arrives,notify: are '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>By email, By SMS, By whatsapp'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed                                                                                                     1.By email : should give email address                                          2.By SMS :Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button then should give Phone number (Only 1 number can give in each field)                                                                                           3.By Whatsapp : Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button then should give Phone number (Only 1 number can give in each field )   </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -784,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="G17" activeCellId="1" sqref="G16 G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +916,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -869,7 +939,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,7 +962,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -915,7 +985,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -938,7 +1008,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,7 +1031,7 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -984,7 +1054,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,7 +1077,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1030,10 +1100,10 @@
         <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1044,16 +1114,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,16 +1137,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1090,16 +1160,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1113,16 +1183,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1136,16 +1206,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,16 +1229,19 @@
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1179,13 +1252,16 @@
         <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Testcases_supplier/Customers/Manual testcases/Customer-Manage settings.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer-Manage settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59679E63-6721-49B1-AB2B-51FA4755EF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E28C6C-0B92-4B7B-8318-46F175FBB5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,6 +383,53 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">It gets displayed                                                                                                     1.By email : should give email address                                          2.By SMS :Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button then should give Phone number (Only 1 number can give in each field)                                                                                           3.By Whatsapp : Click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button then should give Phone number (Only 1 number can give in each field )   </t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>When new order arrives,notify: are '</t>
     </r>
     <r>
@@ -396,52 +443,15 @@
       </rPr>
       <t>By email, By SMS, By whatsapp'</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It gets displayed                                                                                                     1.By email : should give email address                                          2.By SMS :Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Add </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">button then should give Phone number (Only 1 number can give in each field)                                                                                           3.By Whatsapp : Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Add </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">button then should give Phone number (Only 1 number can give in each field )   </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(need to allow up to 20 characters)</t>
     </r>
   </si>
 </sst>
@@ -551,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -567,9 +577,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -854,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="G17" activeCellId="1" sqref="G16 G17"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1011,7 @@
       <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
@@ -1027,7 +1034,7 @@
       <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
@@ -1047,10 +1054,10 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
@@ -1070,10 +1077,10 @@
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G9" t="s">
@@ -1093,10 +1100,10 @@
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G10" t="s">
@@ -1116,11 +1123,11 @@
       <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
@@ -1139,10 +1146,10 @@
       <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G12" t="s">
@@ -1162,10 +1169,10 @@
       <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G13" t="s">
@@ -1185,10 +1192,10 @@
       <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G14" t="s">
@@ -1208,10 +1215,10 @@
       <c r="D15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G15" t="s">
@@ -1231,10 +1238,10 @@
       <c r="D16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
@@ -1254,10 +1261,10 @@
       <c r="D17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G17" t="s">

--- a/Testcases_supplier/Customers/Manual testcases/Customer-Manage settings.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer-Manage settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E28C6C-0B92-4B7B-8318-46F175FBB5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D5B6B4-2DDD-4F84-83B7-069FDDE0BAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -861,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
